--- a/弦振动/弦振动 数据处理表格.xlsx
+++ b/弦振动/弦振动 数据处理表格.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\Tex\基物实验\弦振动\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7858EACB-46F3-4DD9-86A0-7D8655473663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606D55A-B8EE-4EF1-8608-62003462F8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{F095C226-A0A8-4043-8311-83B7624B11AA}"/>
+    <workbookView xWindow="10013" yWindow="0" windowWidth="12982" windowHeight="10455" activeTab="1" xr2:uid="{F095C226-A0A8-4043-8311-83B7624B11AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="(5)分析波速" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +89,58 @@
   </si>
   <si>
     <t>ρ/kg·m-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜率k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定度Uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1/L)/(m-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnρ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ρ = 0.00191kg/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ρ =0.00055kg/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弦线#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v测/m·s-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v理论/m·s-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对误差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +202,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,254 +521,638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94D4D93-3008-4DB5-98E3-13579DC69809}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" customWidth="1"/>
+    <col min="12" max="12" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>TINV(0.05, 5-1)</f>
+        <v>2.7764451051977934</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <f>INDEX(LINEST(C5:G5,C4:G4,0,1),1,1)</f>
+        <v>33.11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <f>INDEX(LINEST(C5:G5,C4:G4,0,1),2,1)</f>
+        <v>0.26303387268908701</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <f>M4*TINV(0.05, 5-1)</f>
+        <v>0.73029910832883516</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>31.83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>97.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>131.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>168.24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>55</v>
+      </c>
+      <c r="O9">
+        <f>TINV(0.05, 6-1)</f>
+        <v>2.570581835636315</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1/(C9/100)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:H10" si="0">1/(D9/100)</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <f>INDEX(LINEST(C11:H11,C10:H10,0,1),1,1)</f>
+        <v>34.428149764539747</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <f>INDEX(LINEST(C11:H11,C10:H10,0,1),2,1)</f>
+        <v>7.0178663292861071E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <f>M10*TINV(0.05, 6-1)</f>
+        <v>0.18039999710986571</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>114.3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1">
+        <v>86.06</v>
+      </c>
+      <c r="F11" s="1">
+        <v>76.86</v>
+      </c>
+      <c r="G11" s="1">
+        <v>69.31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.84</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>57.9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>83.65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>103.1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>119.32</v>
+      </c>
+      <c r="G16" s="1">
+        <v>133.46</v>
+      </c>
+      <c r="H16" s="1">
+        <v>142.82</v>
+      </c>
+      <c r="O16">
+        <f>TINV(0.05, 6-2)</f>
+        <v>2.7764451051977934</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:H18" si="1">LN(C15)</f>
+        <v>0.67294447324242579</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3660916538023711</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7715567619105355</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0592388343623163</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2823823856765264</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4647039424704809</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <f>INDEX(LINEST(C18:H18,C17:H17,1,1),1,1)</f>
+        <v>0.50936176962989099</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <f>INDEX(LINEST(C18:H18,C17:H17,1,1),2,1)</f>
+        <v>8.5482571567693823E-3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <f>M17*TINV(0.05, 6-2)</f>
+        <v>2.3733766740884357E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0587173845789497</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4266414274328332</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6356993910229143</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7818089596465478</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8938018074754606</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.961585096120964</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.91E-3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9.3600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>133.46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69.31</v>
+      </c>
+      <c r="F23" s="1">
+        <v>53.45</v>
+      </c>
+      <c r="G23" s="1">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>31.83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:H25" si="2">LN(C22)</f>
+        <v>-7.5055922797377574</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9279579862996563</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.2606520369235987</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.6549923104867688</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.1533515962978509</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>-4.6713099884926361</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <f>INDEX(LINEST(C25:H25,C24:H24,1,1),1,1)</f>
+        <v>-0.49627172160030697</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>INDEX(LINEST(C25:H25,C24:H24,1,1),2,1)</f>
+        <v>9.1262318196727327E-3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24">
+        <f>M24*TINV(0.05, 6-2)</f>
+        <v>2.5338481664630711E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8938018074754606</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5622626849768144</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2385891959298929</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9787466374710543</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7106409458954492</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4604092412940015</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB9AC0-0D0A-467C-AE58-1238E7E294FD}">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.7999999999999997E-4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.91E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>9.3600000000000003E-3</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>133.46</v>
+      </c>
+      <c r="D4" s="1">
+        <v>95.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>69.31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>53.45</v>
+      </c>
+      <c r="G4" s="1">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>31.83</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>31.83</v>
+        <v>133.47999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>64.510000000000005</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>97.8</v>
+        <v>71.63</v>
       </c>
       <c r="F5" s="1">
-        <v>131.4</v>
+        <v>52.92</v>
       </c>
       <c r="G5" s="1">
-        <v>168.24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>114.3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1">
-        <v>86.06</v>
-      </c>
-      <c r="F10" s="1">
-        <v>76.86</v>
-      </c>
-      <c r="G10" s="1">
-        <v>69.31</v>
-      </c>
-      <c r="H10" s="1">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.92</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5.88</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7.84</v>
-      </c>
-      <c r="G14" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H14" s="1">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>57.9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>83.65</v>
-      </c>
-      <c r="E15" s="1">
-        <v>103.1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>119.32</v>
-      </c>
-      <c r="G15" s="1">
-        <v>133.46</v>
-      </c>
-      <c r="H15" s="1">
-        <v>142.82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5.5000000000000003E-4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.91E-3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5.7800000000000004E-3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>9.3600000000000003E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>133.46</v>
-      </c>
-      <c r="D20" s="1">
-        <v>95.8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>69.31</v>
-      </c>
-      <c r="F20" s="1">
-        <v>53.45</v>
-      </c>
-      <c r="G20" s="1">
-        <v>40.880000000000003</v>
-      </c>
-      <c r="H20" s="1">
-        <v>31.83</v>
+        <v>41.18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.6400000000000001E-2</v>
       </c>
     </row>
   </sheetData>
